--- a/pred_ohlcv/54_21/2019-10-30 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WAVES ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>125566.93945548</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>144516.1432081</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>131912.0451081</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>136846.1698081</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>131445.7982081</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>135935.2993081</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>146122.8963081</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>114229.19592005</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>65502.35802004997</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>66358.42372004998</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-239075.29694962</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-239075.29694962</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-239075.29694962</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-244186.58010226</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-242742.59340226</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-242641.44690226</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-238658.68670226</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-239449.63270226</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-239444.63270226</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-239517.77440226</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-239517.77440226</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-240114.02810226</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-234794.89840226</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-236988.65610226</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-237035.53290226</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-237525.35810226</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-238698.9450022599</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-243035.41630226</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-241418.17090406</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-249524.92721995</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-259002.03261995</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-260614.00783636</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-260603.43701184</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-262121.43701184</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-262162.88561184</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-262162.88561184</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-259662.40481184</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-297067.25501184</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-297071.75501184</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-297072.75501184</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-302070.64061184</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-300107.03751184</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-300671.45131184</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-300523.57131184</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-298432.52971184</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-289207.30191184</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-289205.30191184</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-283769.37407679</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-284375.01347679</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-281322.11777679</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-281409.31867679</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-280181.89227679</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-280219.89227679</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-280221.15797679</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-280191.60937679</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-280188.60937679</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-280231.06007679</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-280230.06007679</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-280230.06007679</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-286108.2392767899</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-284700.78727679</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-286133.80077679</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-288672.9892767899</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-288632.1369767899</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WAVES ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>125566.93945548</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>144516.1432081</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>131912.0451081</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>136846.1698081</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>131445.7982081</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>135935.2993081</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>146122.8963081</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>114229.19592005</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>65502.35802004997</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>66358.42372004998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-237035.53290226</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-237525.35810226</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-238698.9450022599</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-243035.41630226</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-241418.17090406</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-239711.88409824</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-262121.43701184</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-288672.9892767899</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-288632.1369767899</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
